--- a/data/pca/factorExposure/factorExposure_2009-05-22.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-05-22.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.0172473318079588</v>
+        <v>-0.01658240555932644</v>
       </c>
       <c r="C2">
-        <v>0.001632822455916822</v>
+        <v>0.001083064462545724</v>
       </c>
       <c r="D2">
-        <v>0.01016124031973382</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.01004335431706094</v>
+      </c>
+      <c r="E2">
+        <v>0.00227621828094334</v>
+      </c>
+      <c r="F2">
+        <v>-0.01246252897782747</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,220 +751,316 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.08863390465118727</v>
+        <v>-0.09153171584469587</v>
       </c>
       <c r="C4">
-        <v>0.01999625848912999</v>
+        <v>0.01534331327247617</v>
       </c>
       <c r="D4">
-        <v>0.07821953898414763</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.08195743106735341</v>
+      </c>
+      <c r="E4">
+        <v>0.02679358647901894</v>
+      </c>
+      <c r="F4">
+        <v>0.03231505517883417</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>-2.96670290162702e-05</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>-1.329280171540378e-05</v>
       </c>
       <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>0.0002562646847901655</v>
+      </c>
+      <c r="E5">
+        <v>7.780599479326123e-05</v>
+      </c>
+      <c r="F5">
+        <v>-0.0001036244691144938</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.1538791766431792</v>
+        <v>-0.1620701466353104</v>
       </c>
       <c r="C6">
-        <v>0.03131464356874124</v>
+        <v>0.03021312574860134</v>
       </c>
       <c r="D6">
-        <v>-0.03597623646675611</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.02546731550352425</v>
+      </c>
+      <c r="E6">
+        <v>0.01213969899299977</v>
+      </c>
+      <c r="F6">
+        <v>0.04062058848711231</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.05964056167675912</v>
+        <v>-0.06210673369536855</v>
       </c>
       <c r="C7">
-        <v>0.00206004737862015</v>
+        <v>-0.001148844694241834</v>
       </c>
       <c r="D7">
-        <v>0.04855380303073763</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.05390413226786757</v>
+      </c>
+      <c r="E7">
+        <v>0.0153812774189756</v>
+      </c>
+      <c r="F7">
+        <v>0.04913508073769778</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.06108176452984561</v>
+        <v>-0.05707848565333458</v>
       </c>
       <c r="C8">
-        <v>-0.00984856252189396</v>
+        <v>-0.01164864681872394</v>
       </c>
       <c r="D8">
-        <v>0.02626372826349631</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.02997146331317496</v>
+      </c>
+      <c r="E8">
+        <v>0.01908620226155439</v>
+      </c>
+      <c r="F8">
+        <v>-0.02979112468752503</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.06902363978850969</v>
+        <v>-0.0711988683647078</v>
       </c>
       <c r="C9">
-        <v>0.01601733320253901</v>
+        <v>0.01090063518553635</v>
       </c>
       <c r="D9">
-        <v>0.08052805301929133</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.08551336437470956</v>
+      </c>
+      <c r="E9">
+        <v>0.02503554300182257</v>
+      </c>
+      <c r="F9">
+        <v>0.04854361183851065</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.08677761025768792</v>
+        <v>-0.08778513989489005</v>
       </c>
       <c r="C10">
-        <v>0.0171853241912261</v>
+        <v>0.02219241609998899</v>
       </c>
       <c r="D10">
-        <v>-0.1653159994531087</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.15870946719847</v>
+      </c>
+      <c r="E10">
+        <v>-0.03208412297662111</v>
+      </c>
+      <c r="F10">
+        <v>-0.0598298842293126</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.08974428464204934</v>
+        <v>-0.08698691681058314</v>
       </c>
       <c r="C11">
-        <v>0.01737684741928015</v>
+        <v>0.0121061561697414</v>
       </c>
       <c r="D11">
-        <v>0.1118872353360676</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.1179434061687682</v>
+      </c>
+      <c r="E11">
+        <v>0.05158485840964667</v>
+      </c>
+      <c r="F11">
+        <v>0.02436055089065577</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.09697694336803923</v>
+        <v>-0.0910270399764431</v>
       </c>
       <c r="C12">
-        <v>0.01603747066184424</v>
+        <v>0.009821079108197326</v>
       </c>
       <c r="D12">
-        <v>0.1180851322543955</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.1331400557328536</v>
+      </c>
+      <c r="E12">
+        <v>0.05176565338751753</v>
+      </c>
+      <c r="F12">
+        <v>0.03088437526113021</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.04461734386904792</v>
+        <v>-0.04376117221726413</v>
       </c>
       <c r="C13">
-        <v>0.006735395750573479</v>
+        <v>0.003010506252493118</v>
       </c>
       <c r="D13">
-        <v>0.04591968722943642</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.05407940276369808</v>
+      </c>
+      <c r="E13">
+        <v>0.0001686060876574266</v>
+      </c>
+      <c r="F13">
+        <v>0.003940719170389617</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.02014210351945303</v>
+        <v>-0.02392565033702358</v>
       </c>
       <c r="C14">
-        <v>0.01540039995526365</v>
+        <v>0.01418932705007371</v>
       </c>
       <c r="D14">
-        <v>0.03229699925194693</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.0334963628845138</v>
+      </c>
+      <c r="E14">
+        <v>0.022629331964928</v>
+      </c>
+      <c r="F14">
+        <v>0.01208870907836554</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.03430395011547414</v>
+        <v>-0.03433328319173432</v>
       </c>
       <c r="C15">
-        <v>0.007684283338563252</v>
+        <v>0.005947331110873507</v>
       </c>
       <c r="D15">
-        <v>0.0460992840988788</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.046468613443714</v>
+      </c>
+      <c r="E15">
+        <v>0.008345761604830642</v>
+      </c>
+      <c r="F15">
+        <v>0.02962830343864156</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.0736196970223145</v>
+        <v>-0.07149403906391434</v>
       </c>
       <c r="C16">
-        <v>0.007461364468943918</v>
+        <v>0.001811928726011566</v>
       </c>
       <c r="D16">
-        <v>0.115494340330098</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.1290091716392007</v>
+      </c>
+      <c r="E16">
+        <v>0.06422015685990533</v>
+      </c>
+      <c r="F16">
+        <v>0.02806520732765394</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>-0.001205638251737496</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>-0.0004081617296287015</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>0.002372720893478249</v>
+      </c>
+      <c r="E17">
+        <v>0.001970155544925198</v>
+      </c>
+      <c r="F17">
+        <v>-0.002335671660089386</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>-0.02531809181584092</v>
+        <v>-0.04279565415750788</v>
       </c>
       <c r="C18">
-        <v>-0.001710987683994162</v>
+        <v>-0.001701853231117799</v>
       </c>
       <c r="D18">
-        <v>0.02182919009497913</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>0.01672050124167191</v>
+      </c>
+      <c r="E18">
+        <v>-0.004142765106248833</v>
+      </c>
+      <c r="F18">
+        <v>-0.009093692518097021</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.06436300782557805</v>
+        <v>-0.06294813493896191</v>
       </c>
       <c r="C20">
-        <v>0.005836819078568886</v>
+        <v>0.001946599853014363</v>
       </c>
       <c r="D20">
-        <v>0.07304632151278054</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.07911868534626784</v>
+      </c>
+      <c r="E20">
+        <v>0.06208089424399746</v>
+      </c>
+      <c r="F20">
+        <v>0.02977175531293344</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.04078897474556873</v>
+        <v>-0.04261483956371975</v>
       </c>
       <c r="C21">
-        <v>0.009954974448975628</v>
+        <v>0.007363423524037549</v>
       </c>
       <c r="D21">
-        <v>0.03483225778817745</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.03616141420438485</v>
+      </c>
+      <c r="E21">
+        <v>0.002550414829587158</v>
+      </c>
+      <c r="F21">
+        <v>-0.02499729671594746</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.04068937822573793</v>
+        <v>-0.0422216716633976</v>
       </c>
       <c r="C22">
-        <v>0.001382350004434082</v>
+        <v>0.001028556813051471</v>
       </c>
       <c r="D22">
-        <v>3.638099772647637e-05</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.006148144540338207</v>
+      </c>
+      <c r="E22">
+        <v>0.03640718564100015</v>
+      </c>
+      <c r="F22">
+        <v>-0.05022314567654941</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.04064416251269785</v>
+        <v>-0.0421906975199402</v>
       </c>
       <c r="C23">
-        <v>0.001368400788264061</v>
+        <v>0.001016869879340974</v>
       </c>
       <c r="D23">
-        <v>6.476768266965443e-05</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.00616240941861116</v>
+      </c>
+      <c r="E23">
+        <v>0.0364364470728378</v>
+      </c>
+      <c r="F23">
+        <v>-0.05027821959719294</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.08106417353451917</v>
+        <v>-0.07745190608304774</v>
       </c>
       <c r="C24">
-        <v>0.008092549319500408</v>
+        <v>0.002577183880460922</v>
       </c>
       <c r="D24">
-        <v>0.1163816031966452</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.1219450128225952</v>
+      </c>
+      <c r="E24">
+        <v>0.05117435366909791</v>
+      </c>
+      <c r="F24">
+        <v>0.03070196399957884</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.08614170968578173</v>
+        <v>-0.08281449435666481</v>
       </c>
       <c r="C25">
-        <v>0.01051242774919512</v>
+        <v>0.005642208296200361</v>
       </c>
       <c r="D25">
-        <v>0.1038132021366133</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.1100607648228907</v>
+      </c>
+      <c r="E25">
+        <v>0.03460725409765399</v>
+      </c>
+      <c r="F25">
+        <v>0.02753264535445073</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.05768368782734434</v>
+        <v>-0.06080630135691522</v>
       </c>
       <c r="C26">
-        <v>0.01852996187036284</v>
+        <v>0.01522100135196234</v>
       </c>
       <c r="D26">
-        <v>0.03458875300884178</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.04490292072340174</v>
+      </c>
+      <c r="E26">
+        <v>0.03309685413325215</v>
+      </c>
+      <c r="F26">
+        <v>-0.007302004703578264</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,150 +1231,216 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.1348766431953978</v>
+        <v>-0.1438253716395377</v>
       </c>
       <c r="C28">
-        <v>0.01652243676396707</v>
+        <v>0.02429370859551267</v>
       </c>
       <c r="D28">
-        <v>-0.263628130180316</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.2588606370931066</v>
+      </c>
+      <c r="E28">
+        <v>-0.067541319199376</v>
+      </c>
+      <c r="F28">
+        <v>0.00394370546353127</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.02646549011956969</v>
+        <v>-0.02903704373902975</v>
       </c>
       <c r="C29">
-        <v>0.01015748801402226</v>
+        <v>0.009339849363209795</v>
       </c>
       <c r="D29">
-        <v>0.02977542010225163</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.03063390762086959</v>
+      </c>
+      <c r="E29">
+        <v>0.01888410136300687</v>
+      </c>
+      <c r="F29">
+        <v>-0.01332135263581612</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.05817477823959274</v>
+        <v>-0.05581865347328054</v>
       </c>
       <c r="C30">
-        <v>0.007805803773683207</v>
+        <v>0.002771091544900163</v>
       </c>
       <c r="D30">
-        <v>0.07982514163511768</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.08779540890546893</v>
+      </c>
+      <c r="E30">
+        <v>0.01416854246328886</v>
+      </c>
+      <c r="F30">
+        <v>0.07933338146861635</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.05066250872613833</v>
+        <v>-0.05119673559223335</v>
       </c>
       <c r="C31">
-        <v>0.01778303425712836</v>
+        <v>0.01643512705352114</v>
       </c>
       <c r="D31">
-        <v>0.021795635346274</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.02466257767522233</v>
+      </c>
+      <c r="E31">
+        <v>0.02964515492517641</v>
+      </c>
+      <c r="F31">
+        <v>-0.00164734140597537</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.04773457573026105</v>
+        <v>-0.05172267800427439</v>
       </c>
       <c r="C32">
-        <v>0.002351965757705215</v>
+        <v>-0.0009391770108581964</v>
       </c>
       <c r="D32">
-        <v>0.02893682913769098</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.03348293039545842</v>
+      </c>
+      <c r="E32">
+        <v>0.03556964892427338</v>
+      </c>
+      <c r="F32">
+        <v>0.003515606125013794</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.09052255287747403</v>
+        <v>-0.09025156542406271</v>
       </c>
       <c r="C33">
-        <v>0.0140546380062444</v>
+        <v>0.008090214572721487</v>
       </c>
       <c r="D33">
-        <v>0.09108954011107803</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.1047660242302939</v>
+      </c>
+      <c r="E33">
+        <v>0.0494398131364957</v>
+      </c>
+      <c r="F33">
+        <v>0.04347629979202969</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.0684821835306868</v>
+        <v>-0.06693263764081346</v>
       </c>
       <c r="C34">
-        <v>0.01583883655211629</v>
+        <v>0.01100156719686633</v>
       </c>
       <c r="D34">
-        <v>0.09765614954118955</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.1097523701508126</v>
+      </c>
+      <c r="E34">
+        <v>0.03863072070386434</v>
+      </c>
+      <c r="F34">
+        <v>0.03461794110260037</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.02599925817628451</v>
+        <v>-0.02753785717060783</v>
       </c>
       <c r="C35">
-        <v>0.004213131332178006</v>
+        <v>0.003701889081048159</v>
       </c>
       <c r="D35">
-        <v>0.008345777050355489</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.01170634282509946</v>
+      </c>
+      <c r="E35">
+        <v>0.01564678668294502</v>
+      </c>
+      <c r="F35">
+        <v>1.387634136560637e-05</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.02493098944884356</v>
+        <v>-0.02855598666519503</v>
       </c>
       <c r="C36">
-        <v>0.008259518741471836</v>
+        <v>0.007195968560423931</v>
       </c>
       <c r="D36">
-        <v>0.03824969595670053</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.03954010164339528</v>
+      </c>
+      <c r="E36">
+        <v>0.01938704310168047</v>
+      </c>
+      <c r="F36">
+        <v>0.01502745459723291</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>-0.002074841691067566</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>-0.0006768417951617565</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>0.0034826549406722</v>
+      </c>
+      <c r="E37">
+        <v>0.0006053161270143614</v>
+      </c>
+      <c r="F37">
+        <v>-0.001324625434614379</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1223,52 +1451,76 @@
       <c r="D38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.1092743960372966</v>
+        <v>-0.09861152631164022</v>
       </c>
       <c r="C39">
-        <v>0.02304949356344412</v>
+        <v>0.01660739751863944</v>
       </c>
       <c r="D39">
-        <v>0.1495477414558949</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.1518939987403374</v>
+      </c>
+      <c r="E39">
+        <v>0.06145578369382609</v>
+      </c>
+      <c r="F39">
+        <v>0.02103476567324053</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.03870816246055646</v>
+        <v>-0.04433521448135321</v>
       </c>
       <c r="C40">
-        <v>0.009553832950090022</v>
+        <v>0.008254883875954038</v>
       </c>
       <c r="D40">
-        <v>0.02438354105794152</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.03275253098085101</v>
+      </c>
+      <c r="E40">
+        <v>0.003028895088778714</v>
+      </c>
+      <c r="F40">
+        <v>-0.01689443894442667</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.02491568450973258</v>
+        <v>-0.02729588596052193</v>
       </c>
       <c r="C41">
-        <v>0.007622257565375185</v>
+        <v>0.00697112922721246</v>
       </c>
       <c r="D41">
-        <v>0.007560952477694092</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.009730605128435925</v>
+      </c>
+      <c r="E41">
+        <v>0.01310509952005281</v>
+      </c>
+      <c r="F41">
+        <v>-0.006936780176702332</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1531,56 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.04158188676068746</v>
+        <v>-0.03990609065692493</v>
       </c>
       <c r="C43">
-        <v>0.008599933294769256</v>
+        <v>0.007857155766909566</v>
       </c>
       <c r="D43">
-        <v>0.01762664509504968</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.01959358924445099</v>
+      </c>
+      <c r="E43">
+        <v>0.02764840807928098</v>
+      </c>
+      <c r="F43">
+        <v>-0.01598760481487932</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.06704764955098091</v>
+        <v>-0.07711398699131713</v>
       </c>
       <c r="C44">
-        <v>0.02417322055161605</v>
+        <v>0.02030445955842319</v>
       </c>
       <c r="D44">
-        <v>0.09454085953089947</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.09475646576860064</v>
+      </c>
+      <c r="E44">
+        <v>0.06213170291415655</v>
+      </c>
+      <c r="F44">
+        <v>0.1686031727538968</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,80 +1591,116 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.02245374574944374</v>
+        <v>-0.02494970631661373</v>
       </c>
       <c r="C46">
-        <v>0.004680245776652529</v>
+        <v>0.003786624584726773</v>
       </c>
       <c r="D46">
-        <v>0.01077810192623944</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.01423614361325946</v>
+      </c>
+      <c r="E46">
+        <v>0.03192452930250606</v>
+      </c>
+      <c r="F46">
+        <v>-0.005111137493270762</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.05376769918586491</v>
+        <v>-0.05286816069120539</v>
       </c>
       <c r="C47">
-        <v>0.005871494892535836</v>
+        <v>0.004785599910870993</v>
       </c>
       <c r="D47">
-        <v>0.007225802593961248</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.01082883076416852</v>
+      </c>
+      <c r="E47">
+        <v>0.02479315462401565</v>
+      </c>
+      <c r="F47">
+        <v>-0.03189203323063279</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.04821718364430041</v>
+        <v>-0.05140031333666142</v>
       </c>
       <c r="C48">
-        <v>0.005338166267489563</v>
+        <v>0.002720595421710482</v>
       </c>
       <c r="D48">
-        <v>0.04794604392735723</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.05047742639725944</v>
+      </c>
+      <c r="E48">
+        <v>-0.003302837345377795</v>
+      </c>
+      <c r="F48">
+        <v>0.01205051381419675</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.1983356696064562</v>
+        <v>-0.2003613003645592</v>
       </c>
       <c r="C49">
-        <v>0.02429028402312259</v>
+        <v>0.02219994680902559</v>
       </c>
       <c r="D49">
-        <v>-0.01170270383743908</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>-0.004971536289292378</v>
+      </c>
+      <c r="E49">
+        <v>0.02820856478023481</v>
+      </c>
+      <c r="F49">
+        <v>0.0512383900240805</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.04920727825427734</v>
+        <v>-0.05169116822611036</v>
       </c>
       <c r="C50">
-        <v>0.01340313190091435</v>
+        <v>0.01207350628821756</v>
       </c>
       <c r="D50">
-        <v>0.02192558057597571</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.02446275481349538</v>
+      </c>
+      <c r="E50">
+        <v>0.0325602666569415</v>
+      </c>
+      <c r="F50">
+        <v>0.009048322473964464</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1405,80 +1711,116 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.1546762430311328</v>
+        <v>-0.1476224685580148</v>
       </c>
       <c r="C52">
-        <v>0.02215414484848306</v>
+        <v>0.01989080619127447</v>
       </c>
       <c r="D52">
-        <v>0.04089108621522542</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>0.04309472282027</v>
+      </c>
+      <c r="E52">
+        <v>0.0206600151293339</v>
+      </c>
+      <c r="F52">
+        <v>0.04127785377906638</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.1744064724167332</v>
+        <v>-0.1683516576673381</v>
       </c>
       <c r="C53">
-        <v>0.02348275185609805</v>
+        <v>0.02311753087405262</v>
       </c>
       <c r="D53">
-        <v>0.00489337803380824</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.006596934032056389</v>
+      </c>
+      <c r="E53">
+        <v>0.02726918663780637</v>
+      </c>
+      <c r="F53">
+        <v>0.07475251548992944</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.01660200927505626</v>
+        <v>-0.01878518140388348</v>
       </c>
       <c r="C54">
-        <v>0.0121482870367608</v>
+        <v>0.01105283162932544</v>
       </c>
       <c r="D54">
-        <v>0.02951532205208783</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.02914978301989125</v>
+      </c>
+      <c r="E54">
+        <v>0.0211082830715585</v>
+      </c>
+      <c r="F54">
+        <v>-0.002334399558114335</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.1182895955086173</v>
+        <v>-0.1161978064643257</v>
       </c>
       <c r="C55">
-        <v>0.02041473361400679</v>
+        <v>0.02015056405956249</v>
       </c>
       <c r="D55">
-        <v>0.003228329493465225</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.008530074632209273</v>
+      </c>
+      <c r="E55">
+        <v>0.02533660621498166</v>
+      </c>
+      <c r="F55">
+        <v>0.0457699634175498</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1811289036022467</v>
+        <v>-0.1756515439723393</v>
       </c>
       <c r="C56">
-        <v>0.02157631325793125</v>
+        <v>0.02137792190916182</v>
       </c>
       <c r="D56">
-        <v>-0.007335123292806073</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.001906679056925906</v>
+      </c>
+      <c r="E56">
+        <v>0.03115577639650606</v>
+      </c>
+      <c r="F56">
+        <v>0.0553193427363671</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +1831,376 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.04660005503131691</v>
+        <v>-0.04534442844594277</v>
       </c>
       <c r="C58">
-        <v>0.005048652388110851</v>
+        <v>0.0002433755470188039</v>
       </c>
       <c r="D58">
-        <v>0.06582274385690375</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.07616311264213316</v>
+      </c>
+      <c r="E58">
+        <v>0.03612613614055586</v>
+      </c>
+      <c r="F58">
+        <v>-0.03646968442675668</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.1616256267306507</v>
+        <v>-0.1679362324026358</v>
       </c>
       <c r="C59">
-        <v>0.01832375561193671</v>
+        <v>0.02478386794595329</v>
       </c>
       <c r="D59">
-        <v>-0.2221312625212639</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.2165874560801722</v>
+      </c>
+      <c r="E59">
+        <v>-0.05189504045925918</v>
+      </c>
+      <c r="F59">
+        <v>-0.0417693858456946</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.2384118836901568</v>
+        <v>-0.2300054660740528</v>
       </c>
       <c r="C60">
-        <v>0.00578726392602641</v>
+        <v>0.002281449732265728</v>
       </c>
       <c r="D60">
-        <v>0.03663028149097627</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.03961105485813485</v>
+      </c>
+      <c r="E60">
+        <v>-0.0007172531824363083</v>
+      </c>
+      <c r="F60">
+        <v>0.006970463617919006</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.08020029542566459</v>
+        <v>-0.07400885697410971</v>
       </c>
       <c r="C61">
-        <v>0.01689527076194133</v>
+        <v>0.01143453510492688</v>
       </c>
       <c r="D61">
-        <v>0.1111794841549683</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.1168366902971638</v>
+      </c>
+      <c r="E61">
+        <v>0.04000633307123195</v>
+      </c>
+      <c r="F61">
+        <v>0.007891166240291909</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.1731928387117908</v>
+        <v>-0.1688057847327915</v>
       </c>
       <c r="C62">
-        <v>0.0251849643762253</v>
+        <v>0.02393264719164357</v>
       </c>
       <c r="D62">
-        <v>-0.0004317279379999202</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>0.007423136621338302</v>
+      </c>
+      <c r="E62">
+        <v>0.03364194230912054</v>
+      </c>
+      <c r="F62">
+        <v>0.04131784504934168</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.04188654867939492</v>
+        <v>-0.0461741750366125</v>
       </c>
       <c r="C63">
-        <v>0.005858949341800117</v>
+        <v>0.002503713065468298</v>
       </c>
       <c r="D63">
-        <v>0.04953091242246648</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.06042168084245989</v>
+      </c>
+      <c r="E63">
+        <v>0.02585501999398007</v>
+      </c>
+      <c r="F63">
+        <v>0.0005263425179764746</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.1151520275393094</v>
+        <v>-0.111810883175537</v>
       </c>
       <c r="C64">
-        <v>0.01752759205126015</v>
+        <v>0.01404014092583372</v>
       </c>
       <c r="D64">
-        <v>0.03398571805779273</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.04221417665253319</v>
+      </c>
+      <c r="E64">
+        <v>0.02581780089004718</v>
+      </c>
+      <c r="F64">
+        <v>0.02730975311054591</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.145348498828956</v>
+        <v>-0.1526508553962651</v>
       </c>
       <c r="C65">
-        <v>0.03744290094338253</v>
+        <v>0.03699974559791731</v>
       </c>
       <c r="D65">
-        <v>-0.05711461150504602</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.04487093460924772</v>
+      </c>
+      <c r="E65">
+        <v>0.006175919681965334</v>
+      </c>
+      <c r="F65">
+        <v>0.03777055108706456</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.1319722330862261</v>
+        <v>-0.1185718968437507</v>
       </c>
       <c r="C66">
-        <v>0.02158831373975718</v>
+        <v>0.01490162110463041</v>
       </c>
       <c r="D66">
-        <v>0.1329678312451001</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.1413641724021639</v>
+      </c>
+      <c r="E66">
+        <v>0.06571716686964282</v>
+      </c>
+      <c r="F66">
+        <v>0.02710069385375097</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.0631601290232381</v>
+        <v>-0.05598957027523034</v>
       </c>
       <c r="C67">
-        <v>0.006589610609629703</v>
+        <v>0.004211644915427029</v>
       </c>
       <c r="D67">
-        <v>0.05530477902144014</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.0581426766239235</v>
+      </c>
+      <c r="E67">
+        <v>0.02282525587612246</v>
+      </c>
+      <c r="F67">
+        <v>-0.0342953094297176</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.1091134171105824</v>
+        <v>-0.1183327779523938</v>
       </c>
       <c r="C68">
-        <v>0.02669946658707415</v>
+        <v>0.03511194084801002</v>
       </c>
       <c r="D68">
-        <v>-0.26304645735982</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.2597238719063041</v>
+      </c>
+      <c r="E68">
+        <v>-0.08817146139495251</v>
+      </c>
+      <c r="F68">
+        <v>0.000463692950774698</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.03952841712998943</v>
+        <v>-0.03871794156248745</v>
       </c>
       <c r="C69">
-        <v>0.002653458747625641</v>
+        <v>0.001704013333646025</v>
       </c>
       <c r="D69">
-        <v>0.008674110537580071</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.009798211495613284</v>
+      </c>
+      <c r="E69">
+        <v>0.02856123005100242</v>
+      </c>
+      <c r="F69">
+        <v>-0.0007408247219735934</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.06807385929282173</v>
+        <v>-0.06781259341455882</v>
       </c>
       <c r="C70">
-        <v>-0.0238806374013552</v>
+        <v>-0.02614217625010127</v>
       </c>
       <c r="D70">
-        <v>0.02423296560671075</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>0.02863183411162081</v>
+      </c>
+      <c r="E70">
+        <v>-0.02383302638406543</v>
+      </c>
+      <c r="F70">
+        <v>-0.1823947596156924</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.1279153772429692</v>
+        <v>-0.1386305644643213</v>
       </c>
       <c r="C71">
-        <v>0.03149512512554774</v>
+        <v>0.03990006700087177</v>
       </c>
       <c r="D71">
-        <v>-0.2781903276697612</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.2695069267310271</v>
+      </c>
+      <c r="E71">
+        <v>-0.09813177937717113</v>
+      </c>
+      <c r="F71">
+        <v>0.004384809234870276</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.136741671685649</v>
+        <v>-0.1437565443177368</v>
       </c>
       <c r="C72">
-        <v>0.02954488879597636</v>
+        <v>0.02974112941053408</v>
       </c>
       <c r="D72">
-        <v>-0.0003376591592405779</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.003029187200099252</v>
+      </c>
+      <c r="E72">
+        <v>0.03958393309557079</v>
+      </c>
+      <c r="F72">
+        <v>0.02861592015441891</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.2029923427756627</v>
+        <v>-0.2038533408172568</v>
       </c>
       <c r="C73">
-        <v>0.01947854110451341</v>
+        <v>0.01550715761817604</v>
       </c>
       <c r="D73">
-        <v>0.009142168121944192</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.0187065461648669</v>
+      </c>
+      <c r="E73">
+        <v>0.06381995724519497</v>
+      </c>
+      <c r="F73">
+        <v>0.04558833664074551</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.09083104261947149</v>
+        <v>-0.09177328851135003</v>
       </c>
       <c r="C74">
-        <v>0.01506476094095291</v>
+        <v>0.01435143405353988</v>
       </c>
       <c r="D74">
-        <v>0.01385871950964558</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.01731846471947856</v>
+      </c>
+      <c r="E74">
+        <v>0.04219299918498804</v>
+      </c>
+      <c r="F74">
+        <v>0.05302167489634664</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.1333738103212315</v>
+        <v>-0.1254020506226232</v>
       </c>
       <c r="C75">
-        <v>0.03270652103085293</v>
+        <v>0.03068121789532936</v>
       </c>
       <c r="D75">
-        <v>0.02334027847056454</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.02973986026202522</v>
+      </c>
+      <c r="E75">
+        <v>0.0556249162934016</v>
+      </c>
+      <c r="F75">
+        <v>0.02177520987816086</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2211,516 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.08093894551947953</v>
+        <v>-0.09174764517925765</v>
       </c>
       <c r="C77">
-        <v>0.01458156999320637</v>
+        <v>0.009384180148823943</v>
       </c>
       <c r="D77">
-        <v>0.1133207718689292</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.1165102847300111</v>
+      </c>
+      <c r="E77">
+        <v>0.04779264506425608</v>
+      </c>
+      <c r="F77">
+        <v>0.03486470470483844</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.100660031245845</v>
+        <v>-0.1010280181652727</v>
       </c>
       <c r="C78">
-        <v>0.0452865497143595</v>
+        <v>0.04121552416714013</v>
       </c>
       <c r="D78">
-        <v>0.1129032016419468</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.110183802106951</v>
+      </c>
+      <c r="E78">
+        <v>0.07605724052756165</v>
+      </c>
+      <c r="F78">
+        <v>0.05297249192809562</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.1671914375485811</v>
+        <v>-0.1636995505863418</v>
       </c>
       <c r="C79">
-        <v>0.02805578641018921</v>
+        <v>0.02661944673772374</v>
       </c>
       <c r="D79">
-        <v>0.00599034993765842</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.01307993134010589</v>
+      </c>
+      <c r="E79">
+        <v>0.04534684699976906</v>
+      </c>
+      <c r="F79">
+        <v>0.01223492404970785</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.08072438391611471</v>
+        <v>-0.07940981567761438</v>
       </c>
       <c r="C80">
-        <v>0.003175749442588088</v>
+        <v>0.0003130782119611582</v>
       </c>
       <c r="D80">
-        <v>0.05371376687654399</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.05329234290172215</v>
+      </c>
+      <c r="E80">
+        <v>0.03676740918536987</v>
+      </c>
+      <c r="F80">
+        <v>-0.02767259781842074</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.120574791554903</v>
+        <v>-0.1153575144369239</v>
       </c>
       <c r="C81">
-        <v>0.03449653704890539</v>
+        <v>0.03388767757479193</v>
       </c>
       <c r="D81">
-        <v>0.006942791036593393</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.01211426220525572</v>
+      </c>
+      <c r="E81">
+        <v>0.05168411054618767</v>
+      </c>
+      <c r="F81">
+        <v>0.01846354206288258</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.1663657076117366</v>
+        <v>-0.1646695796350554</v>
       </c>
       <c r="C82">
-        <v>0.02837285082447156</v>
+        <v>0.02855950147426319</v>
       </c>
       <c r="D82">
-        <v>0.006404446730030364</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.004669266748994886</v>
+      </c>
+      <c r="E82">
+        <v>0.02604882793012446</v>
+      </c>
+      <c r="F82">
+        <v>0.08356671869337601</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.06006858353684608</v>
+        <v>-0.05476540076465777</v>
       </c>
       <c r="C83">
-        <v>0.005994770880016495</v>
+        <v>0.003854196175208616</v>
       </c>
       <c r="D83">
-        <v>0.03630767648509694</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.03875976942476789</v>
+      </c>
+      <c r="E83">
+        <v>-0.001016300239246783</v>
+      </c>
+      <c r="F83">
+        <v>-0.03593925219341845</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.05927225285844596</v>
+        <v>-0.05526559871979871</v>
       </c>
       <c r="C84">
-        <v>0.01350525364093884</v>
+        <v>0.01070412315497749</v>
       </c>
       <c r="D84">
-        <v>0.07445003285163296</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.0759058417044591</v>
+      </c>
+      <c r="E84">
+        <v>0.01285972737398469</v>
+      </c>
+      <c r="F84">
+        <v>0.01553281400522168</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.1401910516176611</v>
+        <v>-0.1351989248680237</v>
       </c>
       <c r="C85">
-        <v>0.03193218339808163</v>
+        <v>0.03116365747136541</v>
       </c>
       <c r="D85">
-        <v>0.005692824744604815</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.01000814402909405</v>
+      </c>
+      <c r="E85">
+        <v>0.03572431213981143</v>
+      </c>
+      <c r="F85">
+        <v>0.04896486050365299</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.09907450694950694</v>
+        <v>-0.09232585618490442</v>
       </c>
       <c r="C86">
-        <v>-0.002228929318111019</v>
+        <v>-0.005344634996030595</v>
       </c>
       <c r="D86">
-        <v>0.01705369378055857</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.05086842463338909</v>
+      </c>
+      <c r="E86">
+        <v>0.2314506049342893</v>
+      </c>
+      <c r="F86">
+        <v>-0.8957564224114711</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.0944364035722562</v>
+        <v>-0.09151587179165606</v>
       </c>
       <c r="C87">
-        <v>0.0285962184865965</v>
+        <v>0.02085522780128059</v>
       </c>
       <c r="D87">
-        <v>0.07182904211181732</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.09040135158420476</v>
+      </c>
+      <c r="E87">
+        <v>-0.05814676520800637</v>
+      </c>
+      <c r="F87">
+        <v>0.0489037957211983</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.06322601018517755</v>
+        <v>-0.06148095084568281</v>
       </c>
       <c r="C88">
-        <v>0.006354815181633473</v>
+        <v>0.003351695657169585</v>
       </c>
       <c r="D88">
-        <v>0.0490151200646632</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.04968641522553704</v>
+      </c>
+      <c r="E88">
+        <v>0.02657926165764842</v>
+      </c>
+      <c r="F88">
+        <v>0.01387435887871885</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.1195975687604272</v>
+        <v>-0.1283021193107025</v>
       </c>
       <c r="C89">
-        <v>0.007364369954962198</v>
+        <v>0.01505198304006768</v>
       </c>
       <c r="D89">
-        <v>-0.2385190573750726</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.2406838626238528</v>
+      </c>
+      <c r="E89">
+        <v>-0.08996338951222881</v>
+      </c>
+      <c r="F89">
+        <v>-0.008399593013031975</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.1394700167681983</v>
+        <v>-0.1533913803887302</v>
       </c>
       <c r="C90">
-        <v>0.02752715755032715</v>
+        <v>0.03652028758195443</v>
       </c>
       <c r="D90">
-        <v>-0.2646738941624112</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.2671856781958247</v>
+      </c>
+      <c r="E90">
+        <v>-0.1158357758271844</v>
+      </c>
+      <c r="F90">
+        <v>-0.01009021931209761</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.1233196244268115</v>
+        <v>-0.1204531985127021</v>
       </c>
       <c r="C91">
-        <v>0.02264869928821759</v>
+        <v>0.02260750117453097</v>
       </c>
       <c r="D91">
-        <v>-0.02130046531721699</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.01668339388378599</v>
+      </c>
+      <c r="E91">
+        <v>0.05478864599313099</v>
+      </c>
+      <c r="F91">
+        <v>-0.001721651177171459</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.1402932632614188</v>
+        <v>-0.1462626277656926</v>
       </c>
       <c r="C92">
-        <v>0.01836184458037131</v>
+        <v>0.02746263448176319</v>
       </c>
       <c r="D92">
-        <v>-0.293824092432444</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.2920622658103302</v>
+      </c>
+      <c r="E92">
+        <v>-0.1024121533285222</v>
+      </c>
+      <c r="F92">
+        <v>-0.02001235640952426</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.1435620976204093</v>
+        <v>-0.155722649858708</v>
       </c>
       <c r="C93">
-        <v>0.0239317575295279</v>
+        <v>0.03176434348248165</v>
       </c>
       <c r="D93">
-        <v>-0.2627809904462609</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.2620788038802215</v>
+      </c>
+      <c r="E93">
+        <v>-0.07503025710299444</v>
+      </c>
+      <c r="F93">
+        <v>0.002033470589035022</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.1331334649545816</v>
+        <v>-0.1249015326938158</v>
       </c>
       <c r="C94">
-        <v>0.029016996680676</v>
+        <v>0.02646739309842196</v>
       </c>
       <c r="D94">
-        <v>0.03782754047184628</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.04187252967790523</v>
+      </c>
+      <c r="E94">
+        <v>0.05661306154550521</v>
+      </c>
+      <c r="F94">
+        <v>0.03225478918694039</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.1266722922610279</v>
+        <v>-0.1299171941622446</v>
       </c>
       <c r="C95">
-        <v>0.01113586816912849</v>
+        <v>0.005802945613950238</v>
       </c>
       <c r="D95">
-        <v>0.08916494964981925</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.09916023440044831</v>
+      </c>
+      <c r="E95">
+        <v>0.06030576052734449</v>
+      </c>
+      <c r="F95">
+        <v>0.00547065003799618</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.1352487021558552</v>
+        <v>-0.1269002182316495</v>
       </c>
       <c r="C96">
-        <v>-0.9851055783559736</v>
+        <v>-0.9851845657667347</v>
       </c>
       <c r="D96">
-        <v>-0.02083648573140652</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>-0.05074401097112811</v>
+      </c>
+      <c r="E96">
+        <v>0.04935231506979527</v>
+      </c>
+      <c r="F96">
+        <v>0.04293861081778194</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.1870993627900073</v>
+        <v>-0.1913625952998587</v>
       </c>
       <c r="C97">
-        <v>-0.002586122006298526</v>
+        <v>-0.002957523348244755</v>
       </c>
       <c r="D97">
-        <v>-0.02857331782307451</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>-0.03138808250034677</v>
+      </c>
+      <c r="E97">
+        <v>0.0378696395060662</v>
+      </c>
+      <c r="F97">
+        <v>-0.1135919104936382</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.2001921846871853</v>
+        <v>-0.2062879772938365</v>
       </c>
       <c r="C98">
-        <v>0.01434340960115723</v>
+        <v>0.01027253077281256</v>
       </c>
       <c r="D98">
-        <v>0.01344021346971925</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.01518373910683164</v>
+      </c>
+      <c r="E98">
+        <v>-0.07966895620401562</v>
+      </c>
+      <c r="F98">
+        <v>-0.09418224792354805</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.05655049937243888</v>
+        <v>-0.05599590124012125</v>
       </c>
       <c r="C99">
-        <v>-0.001224969598972318</v>
+        <v>-0.003370508459385024</v>
       </c>
       <c r="D99">
-        <v>0.03491761374550689</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>0.04109378806965495</v>
+      </c>
+      <c r="E99">
+        <v>0.0262697716705013</v>
+      </c>
+      <c r="F99">
+        <v>0.003095161177695747</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>-0.1479315935437527</v>
+        <v>-0.134156066086716</v>
       </c>
       <c r="C100">
-        <v>-0.03581747578504852</v>
+        <v>-0.04773908954257419</v>
       </c>
       <c r="D100">
-        <v>0.4006332253267652</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>0.3610847060539545</v>
+      </c>
+      <c r="E100">
+        <v>-0.8794051317138378</v>
+      </c>
+      <c r="F100">
+        <v>-0.1594269170152159</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.02646319991404695</v>
+        <v>-0.02908277513601091</v>
       </c>
       <c r="C101">
-        <v>0.01015890693842832</v>
+        <v>0.00936340707614527</v>
       </c>
       <c r="D101">
-        <v>0.02933047209513518</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.03020625767181917</v>
+      </c>
+      <c r="E101">
+        <v>0.01846911998560404</v>
+      </c>
+      <c r="F101">
+        <v>-0.01462104296115038</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
